--- a/biology/Médecine/1621_en_santé_et_médecine/1621_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1621_en_santé_et_médecine/1621_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1621 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de « la faculté de médecine strasbourgeoise, créée avec l'université[1] ».
-Fondation du jardin des plantes de Poitiers, par Paschal Le Coq (1597-1632), docteur régent et doyen de la faculté de médecine[2],[3].
-Création à Oxford d'un jardin médicinal qui deviendra l'actuel jardin botanique de l'université[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de « la faculté de médecine strasbourgeoise, créée avec l'université ».
+Fondation du jardin des plantes de Poitiers, par Paschal Le Coq (1597-1632), docteur régent et doyen de la faculté de médecine,.
+Création à Oxford d'un jardin médicinal qui deviendra l'actuel jardin botanique de l'université.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Épidémie de peste en France méridionale et en Catalogne[5].
-Le roi Louis XIII charge Jean Héroard, son Premier médecin, de « nommer des médecins qui établiront des jurandes dans les villes où il n'y a point d'université de médecine ni maîtrise d'apothicairerie jurée[6] ».
-Thomas Harriot (né vers 1561), mathématicien et astronome anglais, meurt le 2 juillet d'un cancer du nez[7], malgré les soins du chirurgien Alexander Read (1580-1641[8]).
-Giacomo Giacobelli, vice-Premier médecin des États du pape, est arrêté pour malversations[9].
-L'apothicaire vénitien Giovanni Francesco Gemma est accusé d'avoir reçu dans sa pharmacie et d'avoir rendu visite à un marrane relaps, le médecin portugais Giorgio Francesco Diaz[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Épidémie de peste en France méridionale et en Catalogne.
+Le roi Louis XIII charge Jean Héroard, son Premier médecin, de « nommer des médecins qui établiront des jurandes dans les villes où il n'y a point d'université de médecine ni maîtrise d'apothicairerie jurée ».
+Thomas Harriot (né vers 1561), mathématicien et astronome anglais, meurt le 2 juillet d'un cancer du nez, malgré les soins du chirurgien Alexander Read (1580-1641).
+Giacomo Giacobelli, vice-Premier médecin des États du pape, est arrêté pour malversations.
+L'apothicaire vénitien Giovanni Francesco Gemma est accusé d'avoir reçu dans sa pharmacie et d'avoir rendu visite à un marrane relaps, le médecin portugais Giorgio Francesco Diaz.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,48 +593,50 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tomás de Aguiar (es), docteur en médecine de l'université d'Alcalá, répond, dans son Apologia pro consilio medicinali, aux critiques d'Alonso Núñez de Llerena (c.1570 – c.1630), médecin personnel de Philippe IV[11].
-Giovanni Francesco Arquati, médecin à Trévise, en Vénétie, publie son Tesoro della vera et perfetta medicina universale[12].
-Aubry, chirurgien à Sainte-Menehould donne deux petits traités, l’un sur la goutte, l’autre sur « la différence qu'il y a entre la pierre et la gravelle[13] ».
-Joachim Burser (de) (1583-1639), médecin et botaniste allemand, fait paraître un traité sur la fièvre pétéchiale[14].
-L'écrivain anglais Robert Burton fait paraître son Anatomie de la mélancolie[15],[16].
-Le théologien et historien dominicain polonais Abraham Bzowski publie sa « Liste nominative de saints médecins » (Nomenclator sanctorum professione medicorum[17],[18]).
-Pietro Castelli (1590 ? – 1661), médecin et botaniste italien, publie un Discorso della duratione de’ medicamenti[19], ainsi qu'un mémoire sur les propriétés du vitriol[20].
-Esteban Rodrigo de Castro (1550-1627), médecin portugais, docteur de l'université de Pise[21] fait paraître son traité De meteoris microcosmi[22].
-Proti Casulani, médecin siennois, donne son traité sur le diagnostic par l'examen de la langue[23].
-Giovani Colle (1558-1631) publie deux ouvrages la même année : un Elucidarium anatomicum et chirurgicum ex Graecis, Arabibus et Latinis selectum[24], et un Cosmitor Medicaeus Triplex[25].
-Jean Dant, Albigeois, membre de l'académie de Castres, publie un ouvrage qu'il intitule Le Chauve ou le Mépris des cheveux[26] et où « il déclame amèrement contre l'usage et l'inutilité des cheveux[27] ».
-Le médecin italien Fortunato Fedele (it) (1550-1630) publie ses Contemplationum medicarum libri XXII[28],[29].
-Première édition des « Obervations et cas médicaux » d'Epifanio Ferdinando (1569-1638)[30], avec une préface du poète, médecin et historien italien Cataldo Antonio Mannarino (it) (1568-1621).
-Arnauld Gilles publie sa Fleur des remèdes contre le mal des dents[31],[32].
-Jean Giraud publie son avis sur le traitement du rhumatisme intermittent (Consilium Apollinare periodicae arthritidi[33]).
-Rudolf Goclenius le Jeune (1572-1621), professeur de physique, de médecine et de mathématiques à Marbourg, fait paraître un « régime de santé » sous le titre de Tractatus physicus et medicus de sanorum diaeta[34].
-Johann Günther (fl. 1612-1622), médecin de Weissenfels, tire de la Méthode thérapeutique de Galien des « exercices » pour les étudiants, sur le traitement des maladies complexes[35].
-Parution de la traduction allemande de la Dissertatio de peste (1611), de Johann Heins (1585-1656), docteur en médecine de l'université de Bâle et praticien à Ulm[36], sous le titre de Bericht von der Pestilenz[37].
-Clovis Hesteau de Nuysement (v. 1555 – v. 1623), poète et alchimiste français, fait imprimer un Traité sur le vrai sel, « suivant le troisième principe du Cosmopolite » et « traitant de la connaissance de la vraie médecine chimique[38] », « entièrement fondé sur les Trois livres des elemens chymiques et spagyriques de Jean Brouaut[39] ».
-Peter Lauremberg (en) (1585-1639), professeur de médecine, de mathématiques et de lettres à Hambourg et Rostock[40], publie des conseils médicaux, sous le titre de Laurus Delphica[41].
-Parution de la traduction française de Toutes les œuvres d'André du Laurens (1558-1609) par Théophile Gelée[42].
-Michael Maier (1568 ? – 1622), médecin et alchimiste allemand, donne un ouvrage sur le traitement de la goutte et des rhumatismes de la main et du genou (Podagrae, chiragrae et gonagrae methodica curatio[43]).
-En publiant sa Responsio brevis ad Annotationes Prosperi Martiani[44], Giovanni Manelfi (1581-1654), médecin à Rome, intervient dans le débat qui a opposé les médecins Prospero Marziani et Marsilio Cagnati à propos des purgatifs et de la saignée[45].
-Gregorio Martini (1575 ? – 1632) publie ses Commentatiuncula[46].
-Alonso Muñoz, Premier barbier du roi d'Espagne, fait paraître ses instructions sur la saignée[47],[48].
-Aurelio Palazzoli, qui avait été le médecin du sénateur et historien de Venise  Andrea Morosini[49], fait paraître un recueil d'études médicales qu'il dédie au cardinal Scipione Cobelluzzi[50].
-David de Planis Campy (1589-c.1644), chirurgien, médecin et alchimiste français, publie sa Petite Chirurgie chimique médicale[51].
-Francesco Plazzoni († 1622), chirurgien et anatomiste italien, publie son traité sur les organes de la génération[52].
-Matías de Porres (es) (né pendant les années 1550), médecin espagnol, médecin personnel de Francisco de Borja y Aragón, vice-roi du Pérou, publie un opuscule contre l'habitude de « boire froid avec de la neige » (Breves advertencias para bever frío con nieve[53]).
-Johann Raicus (et) (v. 1580-1632 ) fait paraître un « Traité de médecine chimique sur la podagre » (Tractatus de podagra medico-kimicus[54]).
-Sous le titre de Curationis magneticae et unguenti armarii magica impostura clare demonstrata, Johann Robertus, de la Compagnie de Jésus, donne sa « modeste réponse à la thèse pernicieuse de Jean-Baptiste Helmont » sur le traitement par le magnétisme et l'onguent armaire[55].
-Parution posthume du traité médical en trois volumes de Gioseppe Rosaccio († 1620), médecin, astrologue et géographe italien[56].
-Impression, chez Johann Repp, de treize thèses sur « la bonne manière de purger » (De recta ratione purgandi) proposées en 1620 et 1621 à l'académie de Strasbourg par le professeur de médecine Melchior Sebisch le Jeune (1578-1674[57]), parmi lesquelles figurent celles soutenues par Elias Geiselbrunner (fl. 1610-1650[58]), Johann Ludwig Gans (fl. 1621-1630[59]), ou Benedict Malleolus (fl. 1618-1627[60]).
-Andrés de Tamayo fait paraître à Valence deux traités en un volume, l'un sur la traumatologie osseuse et l'autre sur la diphtérie (Tratados breves de álgebra  y garrotillo[48]).
-Daniel Tilenus (1563-1633), médecin silésien, « finalement converti aux doctrines arminiennes[61] », publie un Avertissement à l'assemblée de La Rochelle[62].
-Le libraire bordelais Simon Millanges imprime un opuscule signé de Pierre Tremarc et intitulé Recueil des secrets admirables [...] des grands et signalés philosophes, astrologues et médecins[63], dont le texte sera réédité sous un autre nom à Grenoble en 1637[64].
-Ludovicus Valentinus Junior (1576-1630), médecin à Venise, publie une « grande controverse sur le flux hépatique » (De fluxu hepatico larga disputatio[65]).
-Jean-Baptiste Van Helmont[66] (1579-1644) publie son ouvrage « sur le traitement magnétique des blessures » (De magnetica vulnerum curatione[67]).
-Parution, à Sens, chez Georges Niverd, d’un traité sur l’hydropisie[68].
-1621-1658 : parution échelonnée des dix livres des Quaestiones medico-legales[69], de Paul Zacchias († 1659[70]), deuxième ouvrage connu consacré à la médecine légale, après le De relationibus medicorum[71] publié en 1602 par Fortunato Fedele (it)[72].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tomás de Aguiar (es), docteur en médecine de l'université d'Alcalá, répond, dans son Apologia pro consilio medicinali, aux critiques d'Alonso Núñez de Llerena (c.1570 – c.1630), médecin personnel de Philippe IV.
+Giovanni Francesco Arquati, médecin à Trévise, en Vénétie, publie son Tesoro della vera et perfetta medicina universale.
+Aubry, chirurgien à Sainte-Menehould donne deux petits traités, l’un sur la goutte, l’autre sur « la différence qu'il y a entre la pierre et la gravelle ».
+Joachim Burser (de) (1583-1639), médecin et botaniste allemand, fait paraître un traité sur la fièvre pétéchiale.
+L'écrivain anglais Robert Burton fait paraître son Anatomie de la mélancolie,.
+Le théologien et historien dominicain polonais Abraham Bzowski publie sa « Liste nominative de saints médecins » (Nomenclator sanctorum professione medicorum,).
+Pietro Castelli (1590 ? – 1661), médecin et botaniste italien, publie un Discorso della duratione de’ medicamenti, ainsi qu'un mémoire sur les propriétés du vitriol.
+Esteban Rodrigo de Castro (1550-1627), médecin portugais, docteur de l'université de Pise fait paraître son traité De meteoris microcosmi.
+Proti Casulani, médecin siennois, donne son traité sur le diagnostic par l'examen de la langue.
+Giovani Colle (1558-1631) publie deux ouvrages la même année : un Elucidarium anatomicum et chirurgicum ex Graecis, Arabibus et Latinis selectum, et un Cosmitor Medicaeus Triplex.
+Jean Dant, Albigeois, membre de l'académie de Castres, publie un ouvrage qu'il intitule Le Chauve ou le Mépris des cheveux et où « il déclame amèrement contre l'usage et l'inutilité des cheveux ».
+Le médecin italien Fortunato Fedele (it) (1550-1630) publie ses Contemplationum medicarum libri XXII,.
+Première édition des « Obervations et cas médicaux » d'Epifanio Ferdinando (1569-1638), avec une préface du poète, médecin et historien italien Cataldo Antonio Mannarino (it) (1568-1621).
+Arnauld Gilles publie sa Fleur des remèdes contre le mal des dents,.
+Jean Giraud publie son avis sur le traitement du rhumatisme intermittent (Consilium Apollinare periodicae arthritidi).
+Rudolf Goclenius le Jeune (1572-1621), professeur de physique, de médecine et de mathématiques à Marbourg, fait paraître un « régime de santé » sous le titre de Tractatus physicus et medicus de sanorum diaeta.
+Johann Günther (fl. 1612-1622), médecin de Weissenfels, tire de la Méthode thérapeutique de Galien des « exercices » pour les étudiants, sur le traitement des maladies complexes.
+Parution de la traduction allemande de la Dissertatio de peste (1611), de Johann Heins (1585-1656), docteur en médecine de l'université de Bâle et praticien à Ulm, sous le titre de Bericht von der Pestilenz.
+Clovis Hesteau de Nuysement (v. 1555 – v. 1623), poète et alchimiste français, fait imprimer un Traité sur le vrai sel, « suivant le troisième principe du Cosmopolite » et « traitant de la connaissance de la vraie médecine chimique », « entièrement fondé sur les Trois livres des elemens chymiques et spagyriques de Jean Brouaut ».
+Peter Lauremberg (en) (1585-1639), professeur de médecine, de mathématiques et de lettres à Hambourg et Rostock, publie des conseils médicaux, sous le titre de Laurus Delphica.
+Parution de la traduction française de Toutes les œuvres d'André du Laurens (1558-1609) par Théophile Gelée.
+Michael Maier (1568 ? – 1622), médecin et alchimiste allemand, donne un ouvrage sur le traitement de la goutte et des rhumatismes de la main et du genou (Podagrae, chiragrae et gonagrae methodica curatio).
+En publiant sa Responsio brevis ad Annotationes Prosperi Martiani, Giovanni Manelfi (1581-1654), médecin à Rome, intervient dans le débat qui a opposé les médecins Prospero Marziani et Marsilio Cagnati à propos des purgatifs et de la saignée.
+Gregorio Martini (1575 ? – 1632) publie ses Commentatiuncula.
+Alonso Muñoz, Premier barbier du roi d'Espagne, fait paraître ses instructions sur la saignée,.
+Aurelio Palazzoli, qui avait été le médecin du sénateur et historien de Venise  Andrea Morosini, fait paraître un recueil d'études médicales qu'il dédie au cardinal Scipione Cobelluzzi.
+David de Planis Campy (1589-c.1644), chirurgien, médecin et alchimiste français, publie sa Petite Chirurgie chimique médicale.
+Francesco Plazzoni († 1622), chirurgien et anatomiste italien, publie son traité sur les organes de la génération.
+Matías de Porres (es) (né pendant les années 1550), médecin espagnol, médecin personnel de Francisco de Borja y Aragón, vice-roi du Pérou, publie un opuscule contre l'habitude de « boire froid avec de la neige » (Breves advertencias para bever frío con nieve).
+Johann Raicus (et) (v. 1580-1632 ) fait paraître un « Traité de médecine chimique sur la podagre » (Tractatus de podagra medico-kimicus).
+Sous le titre de Curationis magneticae et unguenti armarii magica impostura clare demonstrata, Johann Robertus, de la Compagnie de Jésus, donne sa « modeste réponse à la thèse pernicieuse de Jean-Baptiste Helmont » sur le traitement par le magnétisme et l'onguent armaire.
+Parution posthume du traité médical en trois volumes de Gioseppe Rosaccio († 1620), médecin, astrologue et géographe italien.
+Impression, chez Johann Repp, de treize thèses sur « la bonne manière de purger » (De recta ratione purgandi) proposées en 1620 et 1621 à l'académie de Strasbourg par le professeur de médecine Melchior Sebisch le Jeune (1578-1674), parmi lesquelles figurent celles soutenues par Elias Geiselbrunner (fl. 1610-1650), Johann Ludwig Gans (fl. 1621-1630), ou Benedict Malleolus (fl. 1618-1627).
+Andrés de Tamayo fait paraître à Valence deux traités en un volume, l'un sur la traumatologie osseuse et l'autre sur la diphtérie (Tratados breves de álgebra  y garrotillo).
+Daniel Tilenus (1563-1633), médecin silésien, « finalement converti aux doctrines arminiennes », publie un Avertissement à l'assemblée de La Rochelle.
+Le libraire bordelais Simon Millanges imprime un opuscule signé de Pierre Tremarc et intitulé Recueil des secrets admirables [...] des grands et signalés philosophes, astrologues et médecins, dont le texte sera réédité sous un autre nom à Grenoble en 1637.
+Ludovicus Valentinus Junior (1576-1630), médecin à Venise, publie une « grande controverse sur le flux hépatique » (De fluxu hepatico larga disputatio).
+Jean-Baptiste Van Helmont (1579-1644) publie son ouvrage « sur le traitement magnétique des blessures » (De magnetica vulnerum curatione).
+Parution, à Sens, chez Georges Niverd, d’un traité sur l’hydropisie.
+1621-1658 : parution échelonnée des dix livres des Quaestiones medico-legales, de Paul Zacchias († 1659), deuxième ouvrage connu consacré à la médecine légale, après le De relationibus medicorum publié en 1602 par Fortunato Fedele (it).</t>
         </is>
       </c>
     </row>
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,9 +664,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. le sieur de Beauvallet, médecin, poète et alchimiste, auteur des Prodiges chimiques,  poème alchimique dédié au roi Louis XIII[73].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. le sieur de Beauvallet, médecin, poète et alchimiste, auteur des Prodiges chimiques,  poème alchimique dédié au roi Louis XIII.</t>
         </is>
       </c>
     </row>
@@ -658,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,13 +696,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>27 janvier : Thomas Willis (mort en 1675), médecin anglais[74],[75].
-Claude Bourdelin (mort en 1699), chimiste et apothicaire français, membre de l'Académie des sciences[76].
-Pierre Poirot (mort en 1673), maître chirurgien à Nancy[77].
-Johannes Van Horne (mort en 1670), médecin et anatomiste hollandais[78],[79].
-1618[80] ou 1621[81] : George Joyliffe ou Jolivius (mort en 1658), anatomiste et médecin anglais, l’un des découvreurs du système lymphatique.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27 janvier : Thomas Willis (mort en 1675), médecin anglais,.
+Claude Bourdelin (mort en 1699), chimiste et apothicaire français, membre de l'Académie des sciences.
+Pierre Poirot (mort en 1673), maître chirurgien à Nancy.
+Johannes Van Horne (mort en 1670), médecin et anatomiste hollandais,.
+1618 ou 1621 : George Joyliffe ou Jolivius (mort en 1658), anatomiste et médecin anglais, l’un des découvreurs du système lymphatique.</t>
         </is>
       </c>
     </row>
@@ -692,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1621_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1621_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,14 +732,16 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3 mars : Rudolf Goclenius le Jeune (né en 1572), professeur de physique, de médecine et de mathématiques à Marbourg[82],[83].
-19 mars : Lawrence Bohun (en) (né entre 1575 et 1585), médecin anglais, membre du conseil de Virginie[84].
-21 juin : Ján Jesenský, ou Johannes Jessenius (né en 1556), médecin, anatomiste et homme politique silésien[85],[86].
-28 juillet : Cataldo Antonio Mannarino (it) (né en 1568), poète, médecin et historien italien[87].
-Johann Nikolaus Stupanus (en) (né en 1542), médecin italien et suisse, professeur à Bâle, également connu comme traducteur, père d'Emmanuel Stupanus (en) (1587-1664), lui aussi professeur de médecine à Bâle[88].
-1621 ? : Jacques Fontaine (né à une date inconnue), professeur de médecine à Aix, médecin ordinaire du roi[89] et auteur, en 1611, d'un ouvrage sur l'affaire des possessions d'Aix-en-Provence[90].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mars : Rudolf Goclenius le Jeune (né en 1572), professeur de physique, de médecine et de mathématiques à Marbourg,.
+19 mars : Lawrence Bohun (en) (né entre 1575 et 1585), médecin anglais, membre du conseil de Virginie.
+21 juin : Ján Jesenský, ou Johannes Jessenius (né en 1556), médecin, anatomiste et homme politique silésien,.
+28 juillet : Cataldo Antonio Mannarino (it) (né en 1568), poète, médecin et historien italien.
+Johann Nikolaus Stupanus (en) (né en 1542), médecin italien et suisse, professeur à Bâle, également connu comme traducteur, père d'Emmanuel Stupanus (en) (1587-1664), lui aussi professeur de médecine à Bâle.
+1621 ? : Jacques Fontaine (né à une date inconnue), professeur de médecine à Aix, médecin ordinaire du roi et auteur, en 1611, d'un ouvrage sur l'affaire des possessions d'Aix-en-Provence.</t>
         </is>
       </c>
     </row>
